--- a/Results/case1/0.9.xlsx
+++ b/Results/case1/0.9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\桌面\1118MDP\Results_new\case1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\文件\GitHub\MDP\Results\case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_E2D85AF0C15D224EE72564B74F5DCE3A67457790" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2D4B9DFE-5530-4D82-8A9A-A449432C2876}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_E2D85AF0C15D224EE72564B74F5DCE3A67457790" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1AF8B0FD-3FDE-4B24-BD51-6C3D8487C7B7}"/>
   <bookViews>
-    <workbookView xWindow="27510" yWindow="2400" windowWidth="2040" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -329,31 +329,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.97699999999999998</c:v>
+                  <c:v>0.99680000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9859</c:v>
+                  <c:v>0.99729999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99170000000000003</c:v>
+                  <c:v>0.98950000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99319999999999997</c:v>
+                  <c:v>0.99580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99239999999999995</c:v>
+                  <c:v>0.99370000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99470000000000003</c:v>
+                  <c:v>0.99839999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99650000000000005</c:v>
+                  <c:v>0.99760000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99619999999999997</c:v>
+                  <c:v>0.99760000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98</c:v>
+                  <c:v>0.99770000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1753,58 +1753,58 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.97699999999999998</v>
+        <v>0.99390000000000001</v>
       </c>
       <c r="C2">
-        <v>0.55220000000000002</v>
+        <v>0.52990000000000004</v>
       </c>
       <c r="D2">
-        <v>0.98150000000000004</v>
+        <v>0.99509999999999998</v>
       </c>
       <c r="E2">
-        <v>0.54469999999999996</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F2">
-        <v>0.9869</v>
+        <v>0.98950000000000005</v>
       </c>
       <c r="G2">
-        <v>0.49680000000000002</v>
+        <v>0.49049999999999999</v>
       </c>
       <c r="H2">
-        <v>0.98670000000000002</v>
+        <v>0.99050000000000005</v>
       </c>
       <c r="I2">
-        <v>0.49630000000000002</v>
+        <v>0.49080000000000001</v>
       </c>
       <c r="J2">
-        <v>0.98640000000000005</v>
+        <v>0.99050000000000005</v>
       </c>
       <c r="K2">
+        <v>0.49080000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="M2">
+        <v>0.49080000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="O2">
         <v>0.49049999999999999</v>
       </c>
-      <c r="L2">
-        <v>0.98640000000000005</v>
-      </c>
-      <c r="M2">
-        <v>0.49049999999999999</v>
-      </c>
-      <c r="N2">
-        <v>0.98680000000000001</v>
-      </c>
-      <c r="O2">
+      <c r="P2">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="Q2">
         <v>0.49080000000000001</v>
       </c>
-      <c r="P2">
-        <v>0.98680000000000001</v>
-      </c>
-      <c r="Q2">
-        <v>0.49159999999999998</v>
-      </c>
       <c r="R2">
-        <v>0.98</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="S2">
-        <v>0.49490000000000001</v>
+        <v>0.49669999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1812,58 +1812,58 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.96130000000000004</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="C3">
-        <v>0.60360000000000003</v>
+        <v>0.58340000000000003</v>
       </c>
       <c r="D3">
-        <v>0.96189999999999998</v>
+        <v>0.97789999999999999</v>
       </c>
       <c r="E3">
-        <v>0.61570000000000003</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="F3">
-        <v>0.97299999999999998</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="G3">
-        <v>0.58609999999999995</v>
+        <v>0.60109999999999997</v>
       </c>
       <c r="H3">
-        <v>0.96909999999999996</v>
+        <v>0.98329999999999995</v>
       </c>
       <c r="I3">
-        <v>0.60599999999999998</v>
+        <v>0.59530000000000005</v>
       </c>
       <c r="J3">
-        <v>0.97109999999999996</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="K3">
-        <v>0.59240000000000004</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="L3">
-        <v>0.98919999999999997</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="M3">
-        <v>0.52239999999999998</v>
+        <v>0.52969999999999995</v>
       </c>
       <c r="N3">
-        <v>0.98970000000000002</v>
+        <v>0.99390000000000001</v>
       </c>
       <c r="O3">
-        <v>0.51880000000000004</v>
+        <v>0.52880000000000005</v>
       </c>
       <c r="P3">
-        <v>0.98729999999999996</v>
+        <v>0.99439999999999995</v>
       </c>
       <c r="Q3">
-        <v>0.53769999999999996</v>
+        <v>0.52539999999999998</v>
       </c>
       <c r="R3">
-        <v>0.86070000000000002</v>
+        <v>0.99729999999999996</v>
       </c>
       <c r="S3">
-        <v>0.36370000000000002</v>
+        <v>0.50829999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1871,58 +1871,58 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.92320000000000002</v>
+        <v>0.97460000000000002</v>
       </c>
       <c r="C4">
-        <v>0.68640000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="D4">
-        <v>0.9859</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="E4">
-        <v>0.49980000000000002</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="F4">
-        <v>0.99170000000000003</v>
+        <v>0.9788</v>
       </c>
       <c r="G4">
-        <v>0.50670000000000004</v>
+        <v>0.5615</v>
       </c>
       <c r="H4">
-        <v>0.99309999999999998</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="I4">
-        <v>0.50049999999999994</v>
+        <v>0.53459999999999996</v>
       </c>
       <c r="J4">
-        <v>0.99209999999999998</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="K4">
-        <v>0.5121</v>
+        <v>0.53459999999999996</v>
       </c>
       <c r="L4">
-        <v>0.99339999999999995</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="M4">
-        <v>0.51090000000000002</v>
+        <v>0.51049999999999995</v>
       </c>
       <c r="N4">
-        <v>0.99399999999999999</v>
+        <v>0.99750000000000005</v>
       </c>
       <c r="O4">
-        <v>0.50019999999999998</v>
+        <v>0.5111</v>
       </c>
       <c r="P4">
-        <v>0.9929</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="Q4">
-        <v>0.50790000000000002</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="R4">
-        <v>0.86080000000000001</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="S4">
-        <v>0.36359999999999998</v>
+        <v>0.50870000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1930,58 +1930,58 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.96419999999999995</v>
+        <v>0.99129999999999996</v>
       </c>
       <c r="C5">
-        <v>0.57930000000000004</v>
+        <v>0.58550000000000002</v>
       </c>
       <c r="D5">
-        <v>0.97860000000000003</v>
+        <v>0.99729999999999996</v>
       </c>
       <c r="E5">
-        <v>0.53120000000000001</v>
+        <v>0.5121</v>
       </c>
       <c r="F5">
-        <v>0.97499999999999998</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="G5">
-        <v>0.56020000000000003</v>
+        <v>0.56210000000000004</v>
       </c>
       <c r="H5">
-        <v>0.99219999999999997</v>
+        <v>0.9909</v>
       </c>
       <c r="I5">
-        <v>0.50249999999999995</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="J5">
-        <v>0.98880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="K5">
-        <v>0.51559999999999995</v>
+        <v>0.5363</v>
       </c>
       <c r="L5">
-        <v>0.99299999999999999</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="M5">
-        <v>0.51149999999999995</v>
+        <v>0.5111</v>
       </c>
       <c r="N5">
-        <v>0.99399999999999999</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="O5">
-        <v>0.50019999999999998</v>
+        <v>0.50780000000000003</v>
       </c>
       <c r="P5">
-        <v>0.99239999999999995</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="Q5">
-        <v>0.50870000000000004</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="R5">
-        <v>0.86080000000000001</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="S5">
-        <v>0.36359999999999998</v>
+        <v>0.50949999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1989,58 +1989,58 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.96499999999999997</v>
+        <v>0.99529999999999996</v>
       </c>
       <c r="C6">
-        <v>0.58720000000000006</v>
+        <v>0.49559999999999998</v>
       </c>
       <c r="D6">
-        <v>0.97450000000000003</v>
+        <v>0.99570000000000003</v>
       </c>
       <c r="E6">
-        <v>0.55320000000000003</v>
+        <v>0.51759999999999995</v>
       </c>
       <c r="F6">
-        <v>0.97919999999999996</v>
+        <v>0.98229999999999995</v>
       </c>
       <c r="G6">
-        <v>0.55579999999999996</v>
+        <v>0.56340000000000001</v>
       </c>
       <c r="H6">
-        <v>0.99319999999999997</v>
+        <v>0.99580000000000002</v>
       </c>
       <c r="I6">
-        <v>0.50049999999999994</v>
+        <v>0.51</v>
       </c>
       <c r="J6">
-        <v>0.99099999999999999</v>
+        <v>0.99370000000000003</v>
       </c>
       <c r="K6">
-        <v>0.51619999999999999</v>
+        <v>0.52649999999999997</v>
       </c>
       <c r="L6">
-        <v>0.99299999999999999</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="M6">
-        <v>0.51170000000000004</v>
+        <v>0.51119999999999999</v>
       </c>
       <c r="N6">
-        <v>0.99399999999999999</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="O6">
-        <v>0.50019999999999998</v>
+        <v>0.50980000000000003</v>
       </c>
       <c r="P6">
-        <v>0.99260000000000004</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="Q6">
-        <v>0.50890000000000002</v>
+        <v>0.50980000000000003</v>
       </c>
       <c r="R6">
-        <v>0.86080000000000001</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="S6">
-        <v>0.36359999999999998</v>
+        <v>0.50860000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2048,58 +2048,58 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.97160000000000002</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C7">
-        <v>0.50649999999999995</v>
+        <v>0.47920000000000001</v>
       </c>
       <c r="D7">
-        <v>0.97409999999999997</v>
+        <v>0.99419999999999997</v>
       </c>
       <c r="E7">
-        <v>0.55079999999999996</v>
+        <v>0.51539999999999997</v>
       </c>
       <c r="F7">
-        <v>0.97960000000000003</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="G7">
-        <v>0.55559999999999998</v>
+        <v>0.56130000000000002</v>
       </c>
       <c r="H7">
-        <v>0.99319999999999997</v>
+        <v>0.9819</v>
       </c>
       <c r="I7">
-        <v>0.50049999999999994</v>
+        <v>0.56320000000000003</v>
       </c>
       <c r="J7">
-        <v>0.99239999999999995</v>
+        <v>0.99360000000000004</v>
       </c>
       <c r="K7">
-        <v>0.49919999999999998</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="L7">
-        <v>0.99280000000000002</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="M7">
-        <v>0.51160000000000005</v>
+        <v>0.51259999999999994</v>
       </c>
       <c r="N7">
-        <v>0.99650000000000005</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="O7">
-        <v>0.46710000000000002</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="P7">
-        <v>0.99239999999999995</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="Q7">
-        <v>0.50870000000000004</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="R7">
-        <v>0.86080000000000001</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="S7">
-        <v>0.36359999999999998</v>
+        <v>0.50860000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2107,58 +2107,58 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.97260000000000002</v>
+        <v>0.99660000000000004</v>
       </c>
       <c r="C8">
-        <v>0.50480000000000003</v>
+        <v>0.47839999999999999</v>
       </c>
       <c r="D8">
-        <v>0.97409999999999997</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="E8">
-        <v>0.55069999999999997</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="F8">
-        <v>0.97660000000000002</v>
+        <v>0.98350000000000004</v>
       </c>
       <c r="G8">
-        <v>0.57189999999999996</v>
+        <v>0.55969999999999998</v>
       </c>
       <c r="H8">
-        <v>0.99319999999999997</v>
+        <v>0.9819</v>
       </c>
       <c r="I8">
-        <v>0.50049999999999994</v>
+        <v>0.56289999999999996</v>
       </c>
       <c r="J8">
-        <v>0.9909</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="K8">
-        <v>0.51570000000000005</v>
+        <v>0.57040000000000002</v>
       </c>
       <c r="L8">
-        <v>0.99299999999999999</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="M8">
-        <v>0.51170000000000004</v>
+        <v>0.51349999999999996</v>
       </c>
       <c r="N8">
-        <v>0.99399999999999999</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="O8">
-        <v>0.50019999999999998</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="P8">
-        <v>0.99250000000000005</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="Q8">
-        <v>0.50880000000000003</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="R8">
-        <v>0.86080000000000001</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="S8">
-        <v>0.36359999999999998</v>
+        <v>0.50860000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2166,58 +2166,58 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.97209999999999996</v>
+        <v>0.99660000000000004</v>
       </c>
       <c r="C9">
-        <v>0.53410000000000002</v>
+        <v>0.47839999999999999</v>
       </c>
       <c r="D9">
-        <v>0.97409999999999997</v>
+        <v>0.99709999999999999</v>
       </c>
       <c r="E9">
-        <v>0.55049999999999999</v>
+        <v>0.51129999999999998</v>
       </c>
       <c r="F9">
-        <v>0.97960000000000003</v>
+        <v>0.98350000000000004</v>
       </c>
       <c r="G9">
-        <v>0.55600000000000005</v>
+        <v>0.55879999999999996</v>
       </c>
       <c r="H9">
-        <v>0.99319999999999997</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="I9">
-        <v>0.50049999999999994</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="J9">
-        <v>0.9909</v>
+        <v>0.99229999999999996</v>
       </c>
       <c r="K9">
-        <v>0.51580000000000004</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="L9">
-        <v>0.99299999999999999</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="M9">
-        <v>0.51170000000000004</v>
+        <v>0.51259999999999994</v>
       </c>
       <c r="N9">
-        <v>0.99399999999999999</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="O9">
-        <v>0.50019999999999998</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="P9">
-        <v>0.99239999999999995</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="Q9">
-        <v>0.50860000000000005</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="R9">
-        <v>0.86080000000000001</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="S9">
-        <v>0.36359999999999998</v>
+        <v>0.50949999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2225,58 +2225,58 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.97240000000000004</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C10">
-        <v>0.53849999999999998</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="D10">
-        <v>0.97699999999999998</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="E10">
-        <v>0.54400000000000004</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="F10">
-        <v>0.97960000000000003</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="G10">
-        <v>0.55640000000000001</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="H10">
-        <v>0.99319999999999997</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="I10">
-        <v>0.50049999999999994</v>
+        <v>0.57150000000000001</v>
       </c>
       <c r="J10">
-        <v>0.99080000000000001</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="K10">
-        <v>0.51580000000000004</v>
+        <v>0.55620000000000003</v>
       </c>
       <c r="L10">
-        <v>0.99299999999999999</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="M10">
-        <v>0.51170000000000004</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="N10">
-        <v>0.99399999999999999</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="O10">
-        <v>0.50019999999999998</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="P10">
-        <v>0.99619999999999997</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="Q10">
-        <v>0.47039999999999998</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="R10">
-        <v>0.86080000000000001</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="S10">
-        <v>0.36359999999999998</v>
+        <v>0.50860000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2284,58 +2284,58 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.97230000000000005</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C11">
-        <v>0.53900000000000003</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="D11">
-        <v>0.97709999999999997</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="E11">
-        <v>0.54369999999999996</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="F11">
-        <v>0.97960000000000003</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="G11">
-        <v>0.55640000000000001</v>
+        <v>0.56079999999999997</v>
       </c>
       <c r="H11">
-        <v>0.99319999999999997</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="I11">
-        <v>0.50049999999999994</v>
+        <v>0.56410000000000005</v>
       </c>
       <c r="J11">
-        <v>0.99080000000000001</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="K11">
-        <v>0.51580000000000004</v>
+        <v>0.55610000000000004</v>
       </c>
       <c r="L11">
-        <v>0.99280000000000002</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="M11">
-        <v>0.51160000000000005</v>
+        <v>0.51349999999999996</v>
       </c>
       <c r="N11">
-        <v>0.99399999999999999</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="O11">
-        <v>0.50019999999999998</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="P11">
-        <v>0.99250000000000005</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="Q11">
-        <v>0.50670000000000004</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="R11">
-        <v>0.86080000000000001</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="S11">
-        <v>0.36359999999999998</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2343,58 +2343,58 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.97260000000000002</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C12">
-        <v>0.53949999999999998</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="D12">
-        <v>0.97609999999999997</v>
+        <v>0.99419999999999997</v>
       </c>
       <c r="E12">
-        <v>0.54690000000000005</v>
+        <v>0.51490000000000002</v>
       </c>
       <c r="F12">
-        <v>0.97919999999999996</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="G12">
-        <v>0.55730000000000002</v>
+        <v>0.56159999999999999</v>
       </c>
       <c r="H12">
-        <v>0.99319999999999997</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="I12">
-        <v>0.50049999999999994</v>
+        <v>0.56230000000000002</v>
       </c>
       <c r="J12">
-        <v>0.99209999999999998</v>
+        <v>0.98780000000000001</v>
       </c>
       <c r="K12">
-        <v>0.49919999999999998</v>
+        <v>0.55710000000000004</v>
       </c>
       <c r="L12">
-        <v>0.99460000000000004</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="M12">
-        <v>0.51670000000000005</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="N12">
-        <v>0.99399999999999999</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="O12">
-        <v>0.50019999999999998</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="P12">
-        <v>0.99250000000000005</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="Q12">
-        <v>0.50880000000000003</v>
+        <v>0.50980000000000003</v>
       </c>
       <c r="R12">
-        <v>0.86080000000000001</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="S12">
-        <v>0.36359999999999998</v>
+        <v>0.50870000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2402,58 +2402,58 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.97240000000000004</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C13">
-        <v>0.53910000000000002</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="D13">
-        <v>0.97609999999999997</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="E13">
-        <v>0.54690000000000005</v>
+        <v>0.50949999999999995</v>
       </c>
       <c r="F13">
-        <v>0.97899999999999998</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="G13">
-        <v>0.55740000000000001</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="H13">
-        <v>0.99319999999999997</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="I13">
-        <v>0.50049999999999994</v>
+        <v>0.55479999999999996</v>
       </c>
       <c r="J13">
-        <v>0.9909</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="K13">
-        <v>0.51590000000000003</v>
+        <v>0.55610000000000004</v>
       </c>
       <c r="L13">
-        <v>0.99470000000000003</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="M13">
-        <v>0.51649999999999996</v>
+        <v>0.51349999999999996</v>
       </c>
       <c r="N13">
-        <v>0.99399999999999999</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="O13">
-        <v>0.50019999999999998</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="P13">
-        <v>0.99250000000000005</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="Q13">
-        <v>0.50880000000000003</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="R13">
-        <v>0.86080000000000001</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="S13">
-        <v>0.36359999999999998</v>
+        <v>0.50860000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2461,58 +2461,58 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.97260000000000002</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C14">
-        <v>0.53939999999999999</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="D14">
-        <v>0.97609999999999997</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="E14">
-        <v>0.54690000000000005</v>
+        <v>0.50949999999999995</v>
       </c>
       <c r="F14">
-        <v>0.97909999999999997</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="G14">
-        <v>0.55759999999999998</v>
+        <v>0.57150000000000001</v>
       </c>
       <c r="H14">
-        <v>0.99319999999999997</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="I14">
-        <v>0.50049999999999994</v>
+        <v>0.55289999999999995</v>
       </c>
       <c r="J14">
-        <v>0.9909</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="K14">
-        <v>0.51590000000000003</v>
+        <v>0.55620000000000003</v>
       </c>
       <c r="L14">
-        <v>0.99470000000000003</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="M14">
-        <v>0.51649999999999996</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="N14">
-        <v>0.99399999999999999</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="O14">
-        <v>0.50019999999999998</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="P14">
-        <v>0.99250000000000005</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="Q14">
-        <v>0.50880000000000003</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="R14">
-        <v>0.86080000000000001</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="S14">
-        <v>0.36359999999999998</v>
+        <v>0.50860000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2520,58 +2520,58 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.97260000000000002</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C15">
-        <v>0.53949999999999998</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="D15">
-        <v>0.97430000000000005</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="E15">
-        <v>0.55000000000000004</v>
+        <v>0.50949999999999995</v>
       </c>
       <c r="F15">
-        <v>0.97899999999999998</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="G15">
-        <v>0.55740000000000001</v>
+        <v>0.57069999999999999</v>
       </c>
       <c r="H15">
-        <v>0.99319999999999997</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="I15">
-        <v>0.50049999999999994</v>
+        <v>0.56220000000000003</v>
       </c>
       <c r="J15">
-        <v>0.99080000000000001</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="K15">
-        <v>0.51570000000000005</v>
+        <v>0.5575</v>
       </c>
       <c r="L15">
-        <v>0.99470000000000003</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="M15">
-        <v>0.51649999999999996</v>
+        <v>0.51349999999999996</v>
       </c>
       <c r="N15">
-        <v>0.99399999999999999</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="O15">
-        <v>0.50019999999999998</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="P15">
-        <v>0.99250000000000005</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="Q15">
-        <v>0.50880000000000003</v>
+        <v>0.50980000000000003</v>
       </c>
       <c r="R15">
-        <v>0.86080000000000001</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="S15">
-        <v>0.36359999999999998</v>
+        <v>0.50860000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2579,58 +2579,58 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.97240000000000004</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C16">
-        <v>0.53910000000000002</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="D16">
-        <v>0.97430000000000005</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="E16">
-        <v>0.55000000000000004</v>
+        <v>0.50949999999999995</v>
       </c>
       <c r="F16">
-        <v>0.97899999999999998</v>
+        <v>0.9869</v>
       </c>
       <c r="G16">
-        <v>0.55740000000000001</v>
+        <v>0.54830000000000001</v>
       </c>
       <c r="H16">
-        <v>0.99319999999999997</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="I16">
-        <v>0.50049999999999994</v>
+        <v>0.55469999999999997</v>
       </c>
       <c r="J16">
-        <v>0.99209999999999998</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="K16">
-        <v>0.49919999999999998</v>
+        <v>0.5585</v>
       </c>
       <c r="L16">
-        <v>0.99470000000000003</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="M16">
-        <v>0.51649999999999996</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="N16">
-        <v>0.99399999999999999</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="O16">
-        <v>0.50019999999999998</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="P16">
-        <v>0.99250000000000005</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="Q16">
-        <v>0.50880000000000003</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="R16">
-        <v>0.86080000000000001</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="S16">
-        <v>0.36359999999999998</v>
+        <v>0.50860000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2638,58 +2638,58 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.97260000000000002</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C17">
-        <v>0.53949999999999998</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="D17">
-        <v>0.97440000000000004</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="E17">
-        <v>0.54990000000000006</v>
+        <v>0.50949999999999995</v>
       </c>
       <c r="F17">
-        <v>0.97899999999999998</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="G17">
-        <v>0.55769999999999997</v>
+        <v>0.54779999999999995</v>
       </c>
       <c r="H17">
-        <v>0.99319999999999997</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="I17">
-        <v>0.50049999999999994</v>
+        <v>0.55289999999999995</v>
       </c>
       <c r="J17">
-        <v>0.99070000000000003</v>
+        <v>0.98780000000000001</v>
       </c>
       <c r="K17">
-        <v>0.51570000000000005</v>
+        <v>0.55759999999999998</v>
       </c>
       <c r="L17">
-        <v>0.99460000000000004</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="M17">
-        <v>0.51639999999999997</v>
+        <v>0.51390000000000002</v>
       </c>
       <c r="N17">
-        <v>0.99399999999999999</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="O17">
-        <v>0.50019999999999998</v>
+        <v>0.51019999999999999</v>
       </c>
       <c r="P17">
-        <v>0.99250000000000005</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="Q17">
-        <v>0.50880000000000003</v>
+        <v>0.50980000000000003</v>
       </c>
       <c r="R17">
-        <v>0.86080000000000001</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="S17">
-        <v>0.36359999999999998</v>
+        <v>0.50860000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2697,58 +2697,58 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.9728</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="C18">
-        <v>0.54049999999999998</v>
+        <v>0.47949999999999998</v>
       </c>
       <c r="D18">
-        <v>0.97440000000000004</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="E18">
-        <v>0.54990000000000006</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="F18">
-        <v>0.97899999999999998</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="G18">
-        <v>0.55769999999999997</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="H18">
-        <v>0.99229999999999996</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="I18">
-        <v>0.50229999999999997</v>
+        <v>0.55289999999999995</v>
       </c>
       <c r="J18">
-        <v>0.99070000000000003</v>
+        <v>0.98780000000000001</v>
       </c>
       <c r="K18">
-        <v>0.51570000000000005</v>
+        <v>0.55869999999999997</v>
       </c>
       <c r="L18">
-        <v>0.99470000000000003</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="M18">
-        <v>0.51649999999999996</v>
+        <v>0.51160000000000005</v>
       </c>
       <c r="N18">
-        <v>0.99399999999999999</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="O18">
-        <v>0.50019999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="P18">
-        <v>0.99239999999999995</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="Q18">
-        <v>0.50870000000000004</v>
+        <v>0.50890000000000002</v>
       </c>
       <c r="R18">
-        <v>0.86080000000000001</v>
+        <v>0.99690000000000001</v>
       </c>
       <c r="S18">
-        <v>0.36359999999999998</v>
+        <v>0.50919999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2756,58 +2756,58 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.97230000000000005</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C19">
-        <v>0.54010000000000002</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="D19">
-        <v>0.97440000000000004</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="E19">
-        <v>0.54990000000000006</v>
+        <v>0.50970000000000004</v>
       </c>
       <c r="F19">
-        <v>0.97909999999999997</v>
+        <v>0.98089999999999999</v>
       </c>
       <c r="G19">
-        <v>0.55800000000000005</v>
+        <v>0.5706</v>
       </c>
       <c r="H19">
-        <v>0.99319999999999997</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="I19">
-        <v>0.50049999999999994</v>
+        <v>0.55469999999999997</v>
       </c>
       <c r="J19">
-        <v>0.99070000000000003</v>
+        <v>0.98780000000000001</v>
       </c>
       <c r="K19">
-        <v>0.51559999999999995</v>
+        <v>0.55859999999999999</v>
       </c>
       <c r="L19">
-        <v>0.99470000000000003</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="M19">
-        <v>0.51649999999999996</v>
+        <v>0.51160000000000005</v>
       </c>
       <c r="N19">
-        <v>0.99399999999999999</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="O19">
-        <v>0.50019999999999998</v>
+        <v>0.51019999999999999</v>
       </c>
       <c r="P19">
-        <v>0.99250000000000005</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="Q19">
-        <v>0.50880000000000003</v>
+        <v>0.50980000000000003</v>
       </c>
       <c r="R19">
-        <v>0.86080000000000001</v>
+        <v>0.99690000000000001</v>
       </c>
       <c r="S19">
-        <v>0.36359999999999998</v>
+        <v>0.50919999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2815,58 +2815,58 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.97199999999999998</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C20">
-        <v>0.53979999999999995</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="D20">
-        <v>0.97440000000000004</v>
+        <v>0.99419999999999997</v>
       </c>
       <c r="E20">
-        <v>0.54990000000000006</v>
+        <v>0.51480000000000004</v>
       </c>
       <c r="F20">
-        <v>0.97899999999999998</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="G20">
-        <v>0.55769999999999997</v>
+        <v>0.57069999999999999</v>
       </c>
       <c r="H20">
-        <v>0.99319999999999997</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="I20">
-        <v>0.50049999999999994</v>
+        <v>0.55289999999999995</v>
       </c>
       <c r="J20">
-        <v>0.99070000000000003</v>
+        <v>0.98780000000000001</v>
       </c>
       <c r="K20">
-        <v>0.51559999999999995</v>
+        <v>0.55859999999999999</v>
       </c>
       <c r="L20">
-        <v>0.99470000000000003</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="M20">
-        <v>0.51649999999999996</v>
+        <v>0.51160000000000005</v>
       </c>
       <c r="N20">
-        <v>0.99399999999999999</v>
+        <v>0.99639999999999995</v>
       </c>
       <c r="O20">
-        <v>0.50019999999999998</v>
+        <v>0.51039999999999996</v>
       </c>
       <c r="P20">
-        <v>0.99250000000000005</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="Q20">
-        <v>0.50880000000000003</v>
+        <v>0.50990000000000002</v>
       </c>
       <c r="R20">
-        <v>0.86080000000000001</v>
+        <v>0.99690000000000001</v>
       </c>
       <c r="S20">
-        <v>0.36359999999999998</v>
+        <v>0.50919999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2874,58 +2874,58 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.97209999999999996</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="C21">
-        <v>0.54</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="D21">
-        <v>0.97430000000000005</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="E21">
-        <v>0.54969999999999997</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="F21">
-        <v>0.97899999999999998</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="G21">
-        <v>0.55769999999999997</v>
+        <v>0.57069999999999999</v>
       </c>
       <c r="H21">
-        <v>0.99319999999999997</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="I21">
-        <v>0.50049999999999994</v>
+        <v>0.55289999999999995</v>
       </c>
       <c r="J21">
-        <v>0.99209999999999998</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="K21">
-        <v>0.49930000000000002</v>
+        <v>0.55759999999999998</v>
       </c>
       <c r="L21">
-        <v>0.99470000000000003</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="M21">
-        <v>0.51659999999999995</v>
+        <v>0.51270000000000004</v>
       </c>
       <c r="N21">
-        <v>0.99399999999999999</v>
+        <v>0.99639999999999995</v>
       </c>
       <c r="O21">
-        <v>0.50019999999999998</v>
+        <v>0.51039999999999996</v>
       </c>
       <c r="P21">
-        <v>0.99250000000000005</v>
+        <v>0.99639999999999995</v>
       </c>
       <c r="Q21">
-        <v>0.50670000000000004</v>
+        <v>0.51019999999999999</v>
       </c>
       <c r="R21">
-        <v>0.86080000000000001</v>
+        <v>0.997</v>
       </c>
       <c r="S21">
-        <v>0.36359999999999998</v>
+        <v>0.50990000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2934,39 +2934,39 @@
       </c>
       <c r="B22">
         <f>MAX(B2:B21)</f>
-        <v>0.97699999999999998</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22" si="0">MAX(D2:D21)</f>
-        <v>0.9859</v>
+        <v>0.99729999999999996</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22" si="1">MAX(F2:F21)</f>
-        <v>0.99170000000000003</v>
+        <v>0.98950000000000005</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="2">MAX(H2:H21)</f>
-        <v>0.99319999999999997</v>
+        <v>0.99580000000000002</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22" si="3">MAX(J2:J21)</f>
-        <v>0.99239999999999995</v>
+        <v>0.99370000000000003</v>
       </c>
       <c r="L22">
         <f t="shared" ref="L22" si="4">MAX(L2:L21)</f>
-        <v>0.99470000000000003</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="N22">
         <f t="shared" ref="N22" si="5">MAX(N2:N21)</f>
-        <v>0.99650000000000005</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="P22">
         <f t="shared" ref="P22" si="6">MAX(P2:P21)</f>
-        <v>0.99619999999999997</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="R22">
         <f t="shared" ref="R22" si="7">MAX(R2:R21)</f>
-        <v>0.98</v>
+        <v>0.99770000000000003</v>
       </c>
     </row>
   </sheetData>
